--- a/AutoReplenishments.xlsx
+++ b/AutoReplenishments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://afstores-my.sharepoint.com/personal/nrnelson_afstores_com/Documents/Documents/AutoHotkey/sandbox/print-tags/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="113" documentId="8_{64AB0E23-6B33-4CF7-953D-DA263C5BD7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8797FEF-A1E8-4B75-B67F-D01834CF0925}"/>
+  <xr:revisionPtr revIDLastSave="133" documentId="8_{64AB0E23-6B33-4CF7-953D-DA263C5BD7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{198C9761-F6D0-422B-A63A-FC5B094B66A2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{CA83B7E6-6A5B-4B06-B034-5BCC848762C6}"/>
   </bookViews>
@@ -36,9 +36,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Pallet No</t>
+  </si>
+  <si>
+    <t>0376621</t>
+  </si>
+  <si>
+    <t>0620206</t>
+  </si>
+  <si>
+    <t>0955498</t>
+  </si>
+  <si>
+    <t>0798159</t>
+  </si>
+  <si>
+    <t>0977811</t>
+  </si>
+  <si>
+    <t>0082966</t>
+  </si>
+  <si>
+    <t>0620215</t>
+  </si>
+  <si>
+    <t>0620224</t>
+  </si>
+  <si>
+    <t>0497457</t>
+  </si>
+  <si>
+    <t>0709237</t>
+  </si>
+  <si>
+    <t>0149431</t>
   </si>
 </sst>
 </file>
@@ -410,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2EFA76D-3152-447F-86D6-313E96B722E7}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A8"/>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="A151" sqref="A2:A151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -428,37 +461,752 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>3101280</v>
+        <v>1870176</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>3289088</v>
+        <v>2915135</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3289364</v>
+        <v>2307550</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>3289202</v>
+        <v>1869990</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>3289266</v>
+        <v>3121785</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>3289248</v>
+        <v>3259716</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>3289168</v>
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>3345990</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>3287749</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2557389</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1243078</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2989653</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2161430</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2713200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>3288926</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2040776</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2871618</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2837229</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2704167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>3157345</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2661480</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>3049588</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1876893</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>3357469</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>2132034</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>2132043</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>3259707</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>2530871</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>3223675</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>3344688</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>3122187</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>2925142</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>2822912</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>1493725</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>3289774</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>3101262</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>2757653</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>9065003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>1493734</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>3223318</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>2822958</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>1870005</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>2486526</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>3298470</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>3237447</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>1599381</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>2879674</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>2376299</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>2376280</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>2150157</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>2957759</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>3223693</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>3289630</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>3289765</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>2884427</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>3059709</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>3022026</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>3030124</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>3274398</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>3030133</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>2701927</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>2877578</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>3009256</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>2376761</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>3140728</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>3004929</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>3289658</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>3275048</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>3140719</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>2491976</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>3075647</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>2486517</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>1562106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>1493752</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>2804317</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>2084648</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>2664361</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>3253972</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>3222248</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>3222015</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>3344679</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>3359029</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>3344848</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>2069889</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>2031394</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>1843946</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>9052963</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>1876866</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>2102726</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>2102735</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>1960266</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>3275066</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>3275057</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>2026550</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>3356996</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>3357003</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>3357012</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>3357021</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>3360552</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>2989662</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>2920352</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>3357450</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>2822789</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>2418299</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>2960040</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>2661532</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>3287035</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>3289649</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>3360534</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>3360516</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>3360525</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>3360543</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>2891062</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>3221962</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>9706918</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>1819358</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>6932901</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>2599389</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>2069834</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>9064996</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>7654512</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>3030589</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>1832887</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>1315464</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>3232424</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>1979504</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>3108826</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>2394607</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>2149936</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>2664352</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>1493761</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>2102717</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>3101388</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>3017844</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>2187065</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>1771577</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>2951693</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>2951737</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>2951728</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>2182480</v>
       </c>
     </row>
   </sheetData>
